--- a/merchex/Excels/Clermont_Export_Resultats.xlsx
+++ b/merchex/Excels/Clermont_Export_Resultats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -450,6 +450,9 @@
     <x:t>64</x:t>
   </x:si>
   <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
     <x:t>19/11/2024</x:t>
   </x:si>
   <x:si>
@@ -684,9 +687,6 @@
     <x:t>20/01/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
     <x:t>21/01/2025</x:t>
   </x:si>
   <x:si>
@@ -783,9 +783,6 @@
     <x:t>BBM_ExcellenceB_Acad - BASKET BALL (Académie Excellence - M)</x:t>
   </x:si>
   <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
     <x:t>93</x:t>
   </x:si>
   <x:si>
@@ -858,15 +855,24 @@
     <x:t>06/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
     <x:t>10/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
     <x:t>11/03/2025</x:t>
   </x:si>
   <x:si>
     <x:t>12/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
     <x:t>13/03/2025</x:t>
   </x:si>
   <x:si>
@@ -876,9 +882,18 @@
     <x:t>SIGMA/MONTLUCON/ESC</x:t>
   </x:si>
   <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
     <x:t>17/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
     <x:t>19/03/2025</x:t>
   </x:si>
   <x:si>
@@ -891,27 +906,54 @@
     <x:t>24/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>25/03/2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>26/03/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>27/03/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>31/03/2025</x:t>
   </x:si>
   <x:si>
     <x:t>02/04/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
     <x:t>03/04/2025</x:t>
   </x:si>
   <x:si>
     <x:t>ARCHI/STAPS/ESC</x:t>
   </x:si>
   <x:si>
+    <x:t>BBF_Acad_Classement_ - BASKET BALL (ACADEMIE - F)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P17-18 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P16-15 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBF_Finale - FOOTBALL à 8 (ACADEMIE - F)</x:t>
+  </x:si>
+  <x:si>
     <x:t>09/04/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>FBM_Finale_P4-3 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Poule_P11-12 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>10/04/2025</x:t>
   </x:si>
   <x:si>
@@ -921,10 +963,103 @@
     <x:t>STAPS/MONTLUCON/ARCHI</x:t>
   </x:si>
   <x:si>
+    <x:t>BBM_Poule_P15-16 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P6-5 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P5-6 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P12-11 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P10-9 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P2-1 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>16/04/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>BBM_Finale_P9-10 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RG7M_Finale-P4-6 - RUGBY à 7 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>17/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARCHI/MONTLUCON/VICHY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plateau 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RG7M_Finale-P1-3 - RUGBY à 7 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Poule_P13-14 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P8-7 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P3-4 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_Finale_P14-13 - FOOTBALL à 11 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P7-8 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_1/4F_CFDU - FOOTBALL à 11 (CFU N1  - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U. PARIS 8 St Denis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Univ. Montpellier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBM_Finale_P1-2 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBM_1/4F_N2 - FOOTBALL à 11 (CFU N1  - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/05/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U. PARIS  NANTERRE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1301,7 +1436,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P330"/>
+  <x:dimension ref="A1:P356"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3191,16 +3326,19 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P58" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -3220,16 +3358,19 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P59" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -3237,7 +3378,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
         <x:v>88</x:v>
@@ -3269,7 +3410,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
         <x:v>44</x:v>
@@ -3281,16 +3422,19 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P61" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -3298,7 +3442,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
         <x:v>16</x:v>
@@ -3310,16 +3454,16 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="H62" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="H62" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P62" s="1" t="s">
         <x:v>26</x:v>
@@ -3330,7 +3474,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
         <x:v>16</x:v>
@@ -3342,16 +3486,16 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="H63" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="H63" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P63" s="1" t="s">
         <x:v>26</x:v>
@@ -3362,7 +3506,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
         <x:v>16</x:v>
@@ -3384,6 +3528,9 @@
       </x:c>
       <x:c r="I64" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P64" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -3391,7 +3538,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
         <x:v>16</x:v>
@@ -3406,13 +3553,13 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="P65" s="1" t="s">
         <x:v>26</x:v>
@@ -3423,7 +3570,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
         <x:v>16</x:v>
@@ -3455,7 +3602,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
         <x:v>16</x:v>
@@ -3467,13 +3614,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
         <x:v>50</x:v>
@@ -3487,7 +3634,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
         <x:v>16</x:v>
@@ -3519,7 +3666,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
         <x:v>44</x:v>
@@ -3551,7 +3698,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
         <x:v>16</x:v>
@@ -3563,13 +3710,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F70" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G70" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="H70" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I70" s="1" t="s">
         <x:v>135</x:v>
@@ -3583,7 +3730,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
         <x:v>16</x:v>
@@ -3615,7 +3762,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
         <x:v>16</x:v>
@@ -3627,16 +3774,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F72" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G72" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="H72" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="H72" s="1" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="I72" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P72" s="1" t="s">
         <x:v>26</x:v>
@@ -3644,13 +3791,13 @@
     </x:row>
     <x:row r="73" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A73" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
         <x:v>71</x:v>
@@ -3676,7 +3823,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
         <x:v>130</x:v>
@@ -3685,7 +3832,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E74" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
         <x:v>50</x:v>
@@ -3708,7 +3855,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
         <x:v>35</x:v>
@@ -3743,7 +3890,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
         <x:v>44</x:v>
@@ -3755,13 +3902,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F76" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G76" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="H76" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I76" s="1" t="s">
         <x:v>47</x:v>
@@ -3775,7 +3922,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
         <x:v>16</x:v>
@@ -3807,7 +3954,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
         <x:v>16</x:v>
@@ -3839,7 +3986,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
         <x:v>16</x:v>
@@ -3871,7 +4018,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
         <x:v>16</x:v>
@@ -3903,7 +4050,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
         <x:v>16</x:v>
@@ -3915,16 +4062,16 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="H81" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="H81" s="1" t="s">
-        <x:v>162</x:v>
-      </x:c>
       <x:c r="I81" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P81" s="1" t="s">
         <x:v>26</x:v>
@@ -3935,7 +4082,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B82" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
         <x:v>118</x:v>
@@ -3947,13 +4094,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="F82" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G82" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
       <x:c r="H82" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I82" s="1" t="s">
         <x:v>135</x:v>
@@ -3967,13 +4114,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D83" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E83" s="1" t="s">
         <x:v>57</x:v>
@@ -3982,13 +4129,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G83" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H83" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I83" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="P83" s="1" t="s">
         <x:v>26</x:v>
@@ -3999,7 +4146,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C84" s="1" t="s">
         <x:v>16</x:v>
@@ -4031,7 +4178,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
         <x:v>16</x:v>
@@ -4043,16 +4190,16 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F85" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G85" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="H85" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="H85" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
       <x:c r="I85" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P85" s="1" t="s">
         <x:v>26</x:v>
@@ -4063,7 +4210,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B86" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C86" s="1" t="s">
         <x:v>118</x:v>
@@ -4095,7 +4242,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B87" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C87" s="1" t="s">
         <x:v>16</x:v>
@@ -4127,7 +4274,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B88" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
         <x:v>16</x:v>
@@ -4142,13 +4289,13 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="G88" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H88" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="I88" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P88" s="1" t="s">
         <x:v>26</x:v>
@@ -4159,7 +4306,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C89" s="1" t="s">
         <x:v>16</x:v>
@@ -4171,13 +4318,13 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F89" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G89" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="H89" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I89" s="1" t="s">
         <x:v>86</x:v>
@@ -4191,7 +4338,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C90" s="1" t="s">
         <x:v>16</x:v>
@@ -4223,7 +4370,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C91" s="1" t="s">
         <x:v>16</x:v>
@@ -4235,24 +4382,27 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="F91" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G91" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H91" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I91" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="P91" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A92" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B92" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C92" s="1" t="s">
         <x:v>130</x:v>
@@ -4261,7 +4411,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E92" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F92" s="1" t="s">
         <x:v>19</x:v>
@@ -4278,16 +4428,16 @@
     </x:row>
     <x:row r="93" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A93" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B93" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C93" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D93" s="1" t="s">
         <x:v>177</x:v>
-      </x:c>
-      <x:c r="D93" s="1" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="E93" s="1" t="s">
         <x:v>84</x:v>
@@ -4310,7 +4460,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B94" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C94" s="1" t="s">
         <x:v>44</x:v>
@@ -4322,16 +4472,16 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F94" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G94" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H94" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I94" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P94" s="1" t="s">
         <x:v>26</x:v>
@@ -4342,7 +4492,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B95" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C95" s="1" t="s">
         <x:v>44</x:v>
@@ -4377,7 +4527,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B96" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C96" s="1" t="s">
         <x:v>44</x:v>
@@ -4389,16 +4539,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F96" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G96" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="H96" s="1" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="H96" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
       <x:c r="I96" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="P96" s="1" t="s">
         <x:v>26</x:v>
@@ -4409,7 +4559,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B97" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C97" s="1" t="s">
         <x:v>44</x:v>
@@ -4441,7 +4591,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B98" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C98" s="1" t="s">
         <x:v>16</x:v>
@@ -4463,6 +4613,9 @@
       </x:c>
       <x:c r="I98" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P98" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -4470,7 +4623,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B99" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C99" s="1" t="s">
         <x:v>16</x:v>
@@ -4502,7 +4655,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B100" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C100" s="1" t="s">
         <x:v>16</x:v>
@@ -4537,7 +4690,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B101" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C101" s="1" t="s">
         <x:v>16</x:v>
@@ -4569,7 +4722,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B102" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C102" s="1" t="s">
         <x:v>16</x:v>
@@ -4578,19 +4731,19 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E102" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F102" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="G102" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H102" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="I102" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P102" s="1" t="s">
         <x:v>26</x:v>
@@ -4601,7 +4754,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B103" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C103" s="1" t="s">
         <x:v>16</x:v>
@@ -4633,7 +4786,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B104" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C104" s="1" t="s">
         <x:v>16</x:v>
@@ -4665,7 +4818,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B105" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C105" s="1" t="s">
         <x:v>118</x:v>
@@ -4677,16 +4830,19 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F105" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G105" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H105" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I105" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="P105" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -4694,7 +4850,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B106" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C106" s="1" t="s">
         <x:v>118</x:v>
@@ -4726,16 +4882,16 @@
     </x:row>
     <x:row r="107" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A107" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B107" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C107" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D107" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E107" s="1" t="s">
         <x:v>62</x:v>
@@ -4755,19 +4911,19 @@
     </x:row>
     <x:row r="108" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A108" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B108" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C108" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D108" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E108" s="1" t="s">
         <x:v>186</x:v>
-      </x:c>
-      <x:c r="D108" s="1" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="E108" s="1" t="s">
-        <x:v>185</x:v>
       </x:c>
       <x:c r="F108" s="1" t="s">
         <x:v>19</x:v>
@@ -4784,19 +4940,19 @@
     </x:row>
     <x:row r="109" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A109" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B109" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C109" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D109" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="E109" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F109" s="1" t="s">
         <x:v>19</x:v>
@@ -4816,7 +4972,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B110" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C110" s="1" t="s">
         <x:v>44</x:v>
@@ -4831,13 +4987,13 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G110" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H110" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="I110" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="P110" s="1" t="s">
         <x:v>26</x:v>
@@ -4848,7 +5004,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B111" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C111" s="1" t="s">
         <x:v>16</x:v>
@@ -4860,16 +5016,16 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F111" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G111" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H111" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I111" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P111" s="1" t="s">
         <x:v>26</x:v>
@@ -4880,7 +5036,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B112" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C112" s="1" t="s">
         <x:v>16</x:v>
@@ -4895,13 +5051,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G112" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H112" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="I112" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="P112" s="1" t="s">
         <x:v>26</x:v>
@@ -4912,7 +5068,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B113" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C113" s="1" t="s">
         <x:v>88</x:v>
@@ -4947,13 +5103,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B114" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C114" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D114" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E114" s="1" t="s">
         <x:v>90</x:v>
@@ -4979,7 +5135,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B115" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C115" s="1" t="s">
         <x:v>16</x:v>
@@ -4991,16 +5147,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G115" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="H115" s="1" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="H115" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
       <x:c r="I115" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="P115" s="1" t="s">
         <x:v>26</x:v>
@@ -5011,28 +5167,28 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B116" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C116" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D116" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E116" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="F116" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G116" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="H116" s="1" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="H116" s="1" t="s">
-        <x:v>196</x:v>
-      </x:c>
       <x:c r="I116" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="P116" s="1" t="s">
         <x:v>26</x:v>
@@ -5043,7 +5199,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B117" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C117" s="1" t="s">
         <x:v>16</x:v>
@@ -5078,7 +5234,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B118" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C118" s="1" t="s">
         <x:v>35</x:v>
@@ -5110,7 +5266,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B119" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C119" s="1" t="s">
         <x:v>16</x:v>
@@ -5122,13 +5278,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F119" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G119" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="H119" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I119" s="1" t="s">
         <x:v>79</x:v>
@@ -5142,7 +5298,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B120" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C120" s="1" t="s">
         <x:v>16</x:v>
@@ -5164,6 +5320,12 @@
       </x:c>
       <x:c r="I120" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L120" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P120" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -5171,7 +5333,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B121" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C121" s="1" t="s">
         <x:v>16</x:v>
@@ -5203,7 +5365,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B122" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C122" s="1" t="s">
         <x:v>16</x:v>
@@ -5238,7 +5400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B123" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C123" s="1" t="s">
         <x:v>16</x:v>
@@ -5273,7 +5435,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B124" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C124" s="1" t="s">
         <x:v>16</x:v>
@@ -5305,7 +5467,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B125" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C125" s="1" t="s">
         <x:v>16</x:v>
@@ -5337,7 +5499,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B126" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C126" s="1" t="s">
         <x:v>16</x:v>
@@ -5369,7 +5531,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B127" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C127" s="1" t="s">
         <x:v>118</x:v>
@@ -5404,7 +5566,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B128" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C128" s="1" t="s">
         <x:v>16</x:v>
@@ -5413,19 +5575,19 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H128" s="1" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="H128" s="1" t="s">
-        <x:v>201</x:v>
-      </x:c>
       <x:c r="I128" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="P128" s="1" t="s">
         <x:v>26</x:v>
@@ -5436,7 +5598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B129" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C129" s="1" t="s">
         <x:v>118</x:v>
@@ -5471,7 +5633,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B130" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C130" s="1" t="s">
         <x:v>16</x:v>
@@ -5503,7 +5665,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B131" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C131" s="1" t="s">
         <x:v>16</x:v>
@@ -5515,16 +5677,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F131" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G131" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="H131" s="1" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="H131" s="1" t="s">
-        <x:v>205</x:v>
-      </x:c>
       <x:c r="I131" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="P131" s="1" t="s">
         <x:v>26</x:v>
@@ -5535,7 +5697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B132" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C132" s="1" t="s">
         <x:v>44</x:v>
@@ -5567,7 +5729,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B133" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C133" s="1" t="s">
         <x:v>16</x:v>
@@ -5602,7 +5764,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B134" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
         <x:v>44</x:v>
@@ -5611,16 +5773,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E134" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F134" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G134" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="H134" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I134" s="1" t="s">
         <x:v>47</x:v>
@@ -5634,7 +5796,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B135" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C135" s="1" t="s">
         <x:v>16</x:v>
@@ -5666,7 +5828,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B136" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C136" s="1" t="s">
         <x:v>16</x:v>
@@ -5698,7 +5860,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B137" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C137" s="1" t="s">
         <x:v>16</x:v>
@@ -5733,7 +5895,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B138" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C138" s="1" t="s">
         <x:v>16</x:v>
@@ -5765,7 +5927,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B139" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C139" s="1" t="s">
         <x:v>16</x:v>
@@ -5797,7 +5959,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B140" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C140" s="1" t="s">
         <x:v>16</x:v>
@@ -5832,7 +5994,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B141" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C141" s="1" t="s">
         <x:v>16</x:v>
@@ -5864,7 +6026,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B142" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C142" s="1" t="s">
         <x:v>118</x:v>
@@ -5873,7 +6035,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E142" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F142" s="1" t="s">
         <x:v>89</x:v>
@@ -5896,7 +6058,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B143" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
         <x:v>88</x:v>
@@ -5925,19 +6087,19 @@
     </x:row>
     <x:row r="144" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A144" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B144" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C144" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D144" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E144" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F144" s="1" t="s">
         <x:v>19</x:v>
@@ -5950,38 +6112,41 @@
       </x:c>
       <x:c r="I144" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L144" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P144" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A145" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B145" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D145" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E145" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F145" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G145" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H145" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I145" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L145" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="P145" s="1" t="s">
         <x:v>26</x:v>
@@ -5989,31 +6154,31 @@
     </x:row>
     <x:row r="146" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A146" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B146" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C146" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D146" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E146" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F146" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G146" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H146" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I146" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="P146" s="1" t="s">
         <x:v>26</x:v>
@@ -6021,31 +6186,31 @@
     </x:row>
     <x:row r="147" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A147" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B147" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C147" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D147" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E147" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F147" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G147" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H147" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I147" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="P147" s="1" t="s">
         <x:v>26</x:v>
@@ -6053,31 +6218,34 @@
     </x:row>
     <x:row r="148" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A148" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B148" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D148" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E148" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G148" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H148" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I148" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M148" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P148" s="1" t="s">
         <x:v>26</x:v>
@@ -6085,19 +6253,19 @@
     </x:row>
     <x:row r="149" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A149" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B149" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C149" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E149" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
         <x:v>19</x:v>
@@ -6120,19 +6288,19 @@
     </x:row>
     <x:row r="150" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A150" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B150" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D150" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="E150" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F150" s="1" t="s">
         <x:v>19</x:v>
@@ -6147,15 +6315,18 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M150" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P150" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A151" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B151" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
         <x:v>44</x:v>
@@ -6164,22 +6335,19 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E151" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F151" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G151" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H151" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I151" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M151" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="P151" s="1" t="s">
         <x:v>26</x:v>
@@ -6187,31 +6355,34 @@
     </x:row>
     <x:row r="152" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A152" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B152" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C152" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D152" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E152" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G152" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H152" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I152" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M152" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P152" s="1" t="s">
         <x:v>26</x:v>
@@ -6219,34 +6390,31 @@
     </x:row>
     <x:row r="153" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A153" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B153" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C153" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D153" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E153" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F153" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G153" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H153" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I153" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M153" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="P153" s="1" t="s">
         <x:v>26</x:v>
@@ -6254,31 +6422,34 @@
     </x:row>
     <x:row r="154" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A154" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B154" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C154" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D154" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E154" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F154" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G154" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H154" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I154" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L154" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P154" s="1" t="s">
         <x:v>26</x:v>
@@ -6286,34 +6457,31 @@
     </x:row>
     <x:row r="155" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A155" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B155" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C155" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D155" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E155" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F155" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G155" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H155" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I155" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L155" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="P155" s="1" t="s">
         <x:v>26</x:v>
@@ -6321,31 +6489,31 @@
     </x:row>
     <x:row r="156" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A156" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B156" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D156" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E156" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F156" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G156" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H156" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I156" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P156" s="1" t="s">
         <x:v>26</x:v>
@@ -6356,28 +6524,28 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B157" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C157" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D157" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E157" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F157" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G157" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H157" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I157" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P157" s="1" t="s">
         <x:v>26</x:v>
@@ -6385,31 +6553,34 @@
     </x:row>
     <x:row r="158" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A158" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B158" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C158" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D158" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E158" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F158" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G158" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H158" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I158" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M158" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P158" s="1" t="s">
         <x:v>26</x:v>
@@ -6417,63 +6588,63 @@
     </x:row>
     <x:row r="159" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A159" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B159" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C159" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D159" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E159" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F159" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G159" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H159" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I159" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M159" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P159" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A160" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B160" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C160" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D160" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E160" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G160" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H160" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I160" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="P160" s="1" t="s">
         <x:v>26</x:v>
@@ -6481,31 +6652,31 @@
     </x:row>
     <x:row r="161" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A161" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B161" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C161" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D161" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E161" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F161" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G161" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H161" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I161" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P161" s="1" t="s">
         <x:v>26</x:v>
@@ -6513,31 +6684,31 @@
     </x:row>
     <x:row r="162" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A162" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B162" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C162" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D162" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E162" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F162" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G162" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H162" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I162" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P162" s="1" t="s">
         <x:v>26</x:v>
@@ -6545,31 +6716,31 @@
     </x:row>
     <x:row r="163" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A163" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B163" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C163" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D163" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E163" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F163" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G163" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H163" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I163" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P163" s="1" t="s">
         <x:v>26</x:v>
@@ -6577,31 +6748,31 @@
     </x:row>
     <x:row r="164" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A164" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B164" s="1" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D164" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E164" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F164" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G164" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H164" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I164" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P164" s="1" t="s">
         <x:v>26</x:v>
@@ -6609,31 +6780,34 @@
     </x:row>
     <x:row r="165" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A165" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B165" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D165" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E165" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G165" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H165" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I165" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L165" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P165" s="1" t="s">
         <x:v>26</x:v>
@@ -6641,19 +6815,19 @@
     </x:row>
     <x:row r="166" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A166" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B166" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
       <x:c r="C166" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D166" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E166" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F166" s="1" t="s">
         <x:v>19</x:v>
@@ -6676,7 +6850,7 @@
     </x:row>
     <x:row r="167" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A167" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B167" s="1" t="s">
         <x:v>224</x:v>
@@ -6685,51 +6859,54 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D167" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E167" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F167" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G167" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H167" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I167" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="P167" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A168" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B168" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C168" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D168" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E168" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G168" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H168" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I168" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P168" s="1" t="s">
         <x:v>26</x:v>
@@ -6737,31 +6914,31 @@
     </x:row>
     <x:row r="169" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A169" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B169" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D169" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E169" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F169" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G169" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H169" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I169" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P169" s="1" t="s">
         <x:v>26</x:v>
@@ -6769,7 +6946,7 @@
     </x:row>
     <x:row r="170" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A170" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B170" s="1" t="s">
         <x:v>226</x:v>
@@ -6778,22 +6955,22 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="D170" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E170" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F170" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G170" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H170" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I170" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="P170" s="1" t="s">
         <x:v>26</x:v>
@@ -6801,31 +6978,31 @@
     </x:row>
     <x:row r="171" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A171" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B171" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C171" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D171" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E171" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F171" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G171" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H171" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I171" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P171" s="1" t="s">
         <x:v>26</x:v>
@@ -6833,31 +7010,31 @@
     </x:row>
     <x:row r="172" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A172" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B172" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C172" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D172" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E172" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F172" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G172" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H172" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I172" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P172" s="1" t="s">
         <x:v>26</x:v>
@@ -6865,7 +7042,7 @@
     </x:row>
     <x:row r="173" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A173" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B173" s="1" t="s">
         <x:v>226</x:v>
@@ -6874,22 +7051,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D173" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E173" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F173" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G173" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H173" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I173" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P173" s="1" t="s">
         <x:v>26</x:v>
@@ -6897,7 +7074,7 @@
     </x:row>
     <x:row r="174" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A174" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B174" s="1" t="s">
         <x:v>226</x:v>
@@ -6906,22 +7083,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D174" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E174" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="F174" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G174" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H174" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I174" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P174" s="1" t="s">
         <x:v>26</x:v>
@@ -6929,7 +7106,7 @@
     </x:row>
     <x:row r="175" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A175" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B175" s="1" t="s">
         <x:v>226</x:v>
@@ -6938,22 +7115,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D175" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E175" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F175" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G175" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G175" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
       <x:c r="H175" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I175" s="1" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="I175" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="P175" s="1" t="s">
         <x:v>26</x:v>
@@ -6961,7 +7138,7 @@
     </x:row>
     <x:row r="176" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A176" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B176" s="1" t="s">
         <x:v>226</x:v>
@@ -6970,22 +7147,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D176" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E176" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F176" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G176" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H176" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I176" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P176" s="1" t="s">
         <x:v>26</x:v>
@@ -6993,7 +7170,7 @@
     </x:row>
     <x:row r="177" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A177" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B177" s="1" t="s">
         <x:v>226</x:v>
@@ -7002,22 +7179,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D177" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E177" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F177" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G177" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H177" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I177" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M177" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P177" s="1" t="s">
         <x:v>26</x:v>
@@ -7025,7 +7205,7 @@
     </x:row>
     <x:row r="178" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A178" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B178" s="1" t="s">
         <x:v>226</x:v>
@@ -7034,25 +7214,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D178" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E178" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F178" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G178" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H178" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I178" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M178" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P178" s="1" t="s">
         <x:v>26</x:v>
@@ -7060,31 +7237,34 @@
     </x:row>
     <x:row r="179" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A179" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B179" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D179" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E179" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F179" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G179" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H179" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I179" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M179" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P179" s="1" t="s">
         <x:v>26</x:v>
@@ -7092,7 +7272,7 @@
     </x:row>
     <x:row r="180" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A180" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B180" s="1" t="s">
         <x:v>226</x:v>
@@ -7101,10 +7281,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="D180" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E180" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F180" s="1" t="s">
         <x:v>19</x:v>
@@ -7118,7 +7298,7 @@
       <x:c r="I180" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="M180" s="1" t="s">
+      <x:c r="L180" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="P180" s="1" t="s">
@@ -7127,34 +7307,31 @@
     </x:row>
     <x:row r="181" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A181" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B181" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E181" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F181" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G181" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H181" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I181" s="1" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="L181" s="1" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="P181" s="1" t="s">
         <x:v>26</x:v>
@@ -7171,22 +7348,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D182" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E182" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F182" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G182" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H182" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I182" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="P182" s="1" t="s">
         <x:v>26</x:v>
@@ -7197,28 +7374,28 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B183" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C183" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D183" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E183" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F183" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G183" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H183" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I183" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P183" s="1" t="s">
         <x:v>26</x:v>
@@ -7226,92 +7403,95 @@
     </x:row>
     <x:row r="184" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A184" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B184" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C184" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D184" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E184" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F184" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G184" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H184" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I184" s="1" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="P184" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M184" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A185" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B185" s="1" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C185" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D185" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E185" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F185" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G185" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H185" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I185" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P185" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A186" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B186" s="1" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="C186" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D186" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E186" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F186" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G186" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H186" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I186" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P186" s="1" t="s">
         <x:v>26</x:v>
@@ -7319,7 +7499,7 @@
     </x:row>
     <x:row r="187" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A187" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B187" s="1" t="s">
         <x:v>237</x:v>
@@ -7328,42 +7508,39 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D187" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E187" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F187" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G187" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H187" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I187" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P187" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A188" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B188" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C188" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D188" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E188" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
         <x:v>19</x:v>
@@ -7376,6 +7553,12 @@
       </x:c>
       <x:c r="I188" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M188" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P188" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -7389,10 +7572,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D189" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E189" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
         <x:v>19</x:v>
@@ -7415,19 +7598,19 @@
     </x:row>
     <x:row r="190" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A190" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B190" s="1" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="C190" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D190" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E190" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F190" s="1" t="s">
         <x:v>19</x:v>
@@ -7441,7 +7624,7 @@
       <x:c r="I190" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="M190" s="1" t="s">
+      <x:c r="L190" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="P190" s="1" t="s">
@@ -7450,36 +7633,39 @@
     </x:row>
     <x:row r="191" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A191" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B191" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D191" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E191" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F191" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G191" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H191" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I191" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P191" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A192" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B192" s="1" t="s">
         <x:v>240</x:v>
@@ -7488,22 +7674,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D192" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E192" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F192" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G192" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H192" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I192" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="P192" s="1" t="s">
         <x:v>26</x:v>
@@ -7511,7 +7697,7 @@
     </x:row>
     <x:row r="193" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A193" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B193" s="1" t="s">
         <x:v>240</x:v>
@@ -7520,22 +7706,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D193" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E193" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F193" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G193" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H193" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I193" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M193" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P193" s="1" t="s">
         <x:v>26</x:v>
@@ -7543,19 +7732,19 @@
     </x:row>
     <x:row r="194" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A194" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B194" s="1" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="C194" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D194" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E194" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F194" s="1" t="s">
         <x:v>19</x:v>
@@ -7570,6 +7759,9 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M194" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P194" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
@@ -7578,30 +7770,30 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B195" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C195" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D195" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E195" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F195" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G195" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H195" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I195" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M195" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P195" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
@@ -7610,28 +7802,31 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B196" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C196" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D196" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E196" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F196" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G196" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H196" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I196" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M196" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P196" s="1" t="s">
         <x:v>26</x:v>
@@ -7639,19 +7834,19 @@
     </x:row>
     <x:row r="197" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A197" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B197" s="1" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C197" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D197" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E197" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F197" s="1" t="s">
         <x:v>19</x:v>
@@ -7666,12 +7861,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M197" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P197" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A198" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B198" s="1" t="s">
         <x:v>244</x:v>
@@ -7680,27 +7878,30 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D198" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E198" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G198" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H198" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I198" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P198" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A199" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B199" s="1" t="s">
         <x:v>244</x:v>
@@ -7709,22 +7910,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D199" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E199" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G199" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="H199" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I199" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P199" s="1" t="s">
         <x:v>26</x:v>
@@ -7732,7 +7933,7 @@
     </x:row>
     <x:row r="200" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A200" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B200" s="1" t="s">
         <x:v>244</x:v>
@@ -7741,22 +7942,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D200" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E200" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F200" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G200" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H200" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I200" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L200" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P200" s="1" t="s">
         <x:v>26</x:v>
@@ -7764,34 +7968,31 @@
     </x:row>
     <x:row r="201" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A201" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B201" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C201" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D201" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E201" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F201" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G201" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H201" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I201" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L201" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P201" s="1" t="s">
         <x:v>26</x:v>
@@ -7799,7 +8000,7 @@
     </x:row>
     <x:row r="202" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A202" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B202" s="1" t="s">
         <x:v>248</x:v>
@@ -7808,22 +8009,22 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D202" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E202" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F202" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G202" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H202" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I202" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P202" s="1" t="s">
         <x:v>26</x:v>
@@ -7837,25 +8038,25 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="C203" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D203" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E203" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F203" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G203" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H203" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I203" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P203" s="1" t="s">
         <x:v>26</x:v>
@@ -7863,31 +8064,31 @@
     </x:row>
     <x:row r="204" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A204" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B204" s="1" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="C204" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D204" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E204" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F204" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G204" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="H204" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I204" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P204" s="1" t="s">
         <x:v>26</x:v>
@@ -7895,7 +8096,7 @@
     </x:row>
     <x:row r="205" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A205" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B205" s="1" t="s">
         <x:v>248</x:v>
@@ -7904,22 +8105,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D205" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E205" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F205" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G205" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H205" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I205" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P205" s="1" t="s">
         <x:v>26</x:v>
@@ -7927,7 +8128,7 @@
     </x:row>
     <x:row r="206" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A206" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B206" s="1" t="s">
         <x:v>248</x:v>
@@ -7936,22 +8137,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D206" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E206" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F206" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G206" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H206" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I206" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="P206" s="1" t="s">
         <x:v>26</x:v>
@@ -7959,7 +8160,7 @@
     </x:row>
     <x:row r="207" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A207" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B207" s="1" t="s">
         <x:v>248</x:v>
@@ -7968,22 +8169,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D207" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E207" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F207" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G207" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H207" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I207" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P207" s="1" t="s">
         <x:v>26</x:v>
@@ -8000,22 +8201,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D208" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E208" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F208" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G208" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H208" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I208" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P208" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -8029,22 +8233,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D209" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E209" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F209" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="G209" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H209" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="I209" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P209" s="1" t="s">
         <x:v>26</x:v>
@@ -8052,7 +8256,7 @@
     </x:row>
     <x:row r="210" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A210" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B210" s="1" t="s">
         <x:v>248</x:v>
@@ -8061,22 +8265,22 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D210" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E210" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F210" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G210" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H210" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I210" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="P210" s="1" t="s">
         <x:v>26</x:v>
@@ -8084,31 +8288,31 @@
     </x:row>
     <x:row r="211" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A211" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B211" s="1" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="C211" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D211" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E211" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F211" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G211" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H211" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I211" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P211" s="1" t="s">
         <x:v>26</x:v>
@@ -8116,31 +8320,31 @@
     </x:row>
     <x:row r="212" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A212" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B212" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C212" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D212" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E212" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F212" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G212" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H212" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I212" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P212" s="1" t="s">
         <x:v>26</x:v>
@@ -8148,31 +8352,31 @@
     </x:row>
     <x:row r="213" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A213" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B213" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C213" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D213" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E213" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F213" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G213" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H213" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I213" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="P213" s="1" t="s">
         <x:v>26</x:v>
@@ -8180,31 +8384,31 @@
     </x:row>
     <x:row r="214" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A214" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B214" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C214" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D214" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E214" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F214" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G214" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H214" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I214" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P214" s="1" t="s">
         <x:v>26</x:v>
@@ -8212,31 +8416,34 @@
     </x:row>
     <x:row r="215" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A215" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B215" s="1" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="C215" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D215" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E215" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F215" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G215" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H215" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I215" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M215" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P215" s="1" t="s">
         <x:v>26</x:v>
@@ -8244,34 +8451,31 @@
     </x:row>
     <x:row r="216" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A216" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B216" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C216" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D216" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E216" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F216" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G216" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H216" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I216" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M216" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P216" s="1" t="s">
         <x:v>26</x:v>
@@ -8285,25 +8489,28 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="C217" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D217" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E217" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F217" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G217" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H217" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I217" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M217" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P217" s="1" t="s">
         <x:v>26</x:v>
@@ -8314,17 +8521,17 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B218" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C218" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D218" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E218" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E218" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="F218" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -8337,57 +8544,60 @@
       <x:c r="I218" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="M218" s="1" t="s">
+      <x:c r="L218" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P218" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A219" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C219" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D219" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E219" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F219" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G219" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H219" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I219" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L219" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P219" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A220" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C220" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D220" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E220" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F220" s="1" t="s">
         <x:v>19</x:v>
@@ -8400,38 +8610,41 @@
       </x:c>
       <x:c r="I220" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M220" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P220" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A221" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B221" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C221" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D221" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E221" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F221" s="1" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="C221" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D221" s="1" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E221" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F221" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="G221" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H221" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="I221" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M221" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P221" s="1" t="s">
         <x:v>26</x:v>
@@ -8439,31 +8652,31 @@
     </x:row>
     <x:row r="222" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A222" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B222" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C222" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D222" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E222" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F222" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G222" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H222" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I222" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="P222" s="1" t="s">
         <x:v>26</x:v>
@@ -8474,28 +8687,31 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="B223" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C223" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D223" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E223" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F223" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G223" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H223" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I223" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L223" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P223" s="1" t="s">
         <x:v>26</x:v>
@@ -8503,19 +8719,19 @@
     </x:row>
     <x:row r="224" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A224" s="1" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B224" s="1" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="B224" s="1" t="s">
-        <x:v>263</x:v>
-      </x:c>
       <x:c r="C224" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D224" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E224" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F224" s="1" t="s">
         <x:v>19</x:v>
@@ -8529,7 +8745,7 @@
       <x:c r="I224" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="L224" s="1" t="s">
+      <x:c r="M224" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="P224" s="1" t="s">
@@ -8538,34 +8754,31 @@
     </x:row>
     <x:row r="225" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A225" s="1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B225" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C225" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D225" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E225" s="1" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="B225" s="1" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="C225" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D225" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E225" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="F225" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G225" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H225" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I225" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M225" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P225" s="1" t="s">
         <x:v>26</x:v>
@@ -8573,19 +8786,19 @@
     </x:row>
     <x:row r="226" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A226" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B226" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C226" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D226" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E226" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F226" s="1" t="s">
         <x:v>19</x:v>
@@ -8598,61 +8811,70 @@
       </x:c>
       <x:c r="I226" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M226" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P226" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A227" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C227" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D227" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E227" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F227" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G227" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H227" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I227" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P227" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A228" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C228" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D228" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E228" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F228" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G228" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="H228" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I228" s="1" t="s">
         <x:v>50</x:v>
@@ -8663,31 +8885,31 @@
     </x:row>
     <x:row r="229" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A229" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C229" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D229" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E229" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F229" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G229" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H229" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I229" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P229" s="1" t="s">
         <x:v>26</x:v>
@@ -8695,31 +8917,34 @@
     </x:row>
     <x:row r="230" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A230" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C230" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D230" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E230" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F230" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G230" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H230" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I230" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M230" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P230" s="1" t="s">
         <x:v>26</x:v>
@@ -8727,60 +8952,66 @@
     </x:row>
     <x:row r="231" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A231" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C231" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D231" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E231" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F231" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G231" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H231" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I231" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="P231" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A232" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C232" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="D232" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E232" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F232" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G232" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H232" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I232" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L232" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P232" s="1" t="s">
         <x:v>26</x:v>
@@ -8788,34 +9019,31 @@
     </x:row>
     <x:row r="233" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A233" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C233" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D233" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E233" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F233" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G233" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H233" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I233" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L233" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="P233" s="1" t="s">
         <x:v>26</x:v>
@@ -8823,31 +9051,31 @@
     </x:row>
     <x:row r="234" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A234" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C234" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D234" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E234" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F234" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G234" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H234" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I234" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="P234" s="1" t="s">
         <x:v>26</x:v>
@@ -8855,31 +9083,34 @@
     </x:row>
     <x:row r="235" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A235" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C235" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D235" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E235" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F235" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G235" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H235" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I235" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P235" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -8887,28 +9118,28 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C236" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D236" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E236" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F236" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G236" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H236" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I236" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P236" s="1" t="s">
         <x:v>26</x:v>
@@ -8916,7 +9147,7 @@
     </x:row>
     <x:row r="237" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A237" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
         <x:v>270</x:v>
@@ -8925,22 +9156,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D237" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E237" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F237" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G237" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H237" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I237" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M237" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P237" s="1" t="s">
         <x:v>26</x:v>
@@ -8948,60 +9182,63 @@
     </x:row>
     <x:row r="238" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A238" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C238" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D238" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E238" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F238" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G238" s="1" t="s">
         <x:v>271</x:v>
       </x:c>
-      <x:c r="C238" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D238" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E238" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F238" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G238" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="H238" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I238" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="P238" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A239" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B239" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C239" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D239" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E239" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F239" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G239" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H239" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I239" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="P239" s="1" t="s">
         <x:v>26</x:v>
@@ -9009,34 +9246,31 @@
     </x:row>
     <x:row r="240" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A240" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C240" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D240" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E240" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F240" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G240" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H240" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I240" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M240" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P240" s="1" t="s">
         <x:v>26</x:v>
@@ -9044,31 +9278,34 @@
     </x:row>
     <x:row r="241" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A241" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C241" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D241" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E241" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F241" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G241" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H241" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I241" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M241" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P241" s="1" t="s">
         <x:v>26</x:v>
@@ -9076,31 +9313,31 @@
     </x:row>
     <x:row r="242" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A242" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B242" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C242" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D242" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E242" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F242" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G242" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H242" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I242" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P242" s="1" t="s">
         <x:v>26</x:v>
@@ -9108,31 +9345,31 @@
     </x:row>
     <x:row r="243" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A243" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B243" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C243" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D243" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E243" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F243" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G243" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H243" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I243" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P243" s="1" t="s">
         <x:v>26</x:v>
@@ -9140,34 +9377,31 @@
     </x:row>
     <x:row r="244" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A244" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C244" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D244" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E244" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F244" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G244" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H244" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I244" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M244" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="P244" s="1" t="s">
         <x:v>26</x:v>
@@ -9175,31 +9409,31 @@
     </x:row>
     <x:row r="245" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A245" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B245" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C245" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D245" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E245" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F245" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G245" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H245" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I245" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="P245" s="1" t="s">
         <x:v>26</x:v>
@@ -9207,19 +9441,19 @@
     </x:row>
     <x:row r="246" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A246" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C246" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D246" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E246" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F246" s="1" t="s">
         <x:v>19</x:v>
@@ -9232,6 +9466,9 @@
       </x:c>
       <x:c r="I246" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M246" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P246" s="1" t="s">
         <x:v>26</x:v>
@@ -9239,31 +9476,34 @@
     </x:row>
     <x:row r="247" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A247" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B247" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C247" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D247" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E247" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F247" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G247" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H247" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I247" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M247" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P247" s="1" t="s">
         <x:v>26</x:v>
@@ -9271,31 +9511,34 @@
     </x:row>
     <x:row r="248" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A248" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B248" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C248" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D248" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E248" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F248" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G248" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H248" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I248" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M248" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P248" s="1" t="s">
         <x:v>26</x:v>
@@ -9306,103 +9549,112 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="B249" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C249" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D249" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E249" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F249" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G249" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H249" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I249" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P249" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A250" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B250" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C250" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D250" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E250" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F250" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G250" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H250" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I250" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="P250" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A251" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B251" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C251" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D251" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E251" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F251" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G251" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H251" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I251" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P251" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A252" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B252" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C252" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D252" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E252" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F252" s="1" t="s">
         <x:v>19</x:v>
@@ -9415,35 +9667,41 @@
       </x:c>
       <x:c r="I252" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M252" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P252" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A253" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B253" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C253" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D253" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E253" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F253" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G253" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H253" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I253" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P253" s="1" t="s">
         <x:v>26</x:v>
@@ -9451,31 +9709,31 @@
     </x:row>
     <x:row r="254" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A254" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B254" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C254" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D254" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E254" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F254" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G254" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H254" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I254" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P254" s="1" t="s">
         <x:v>26</x:v>
@@ -9483,19 +9741,19 @@
     </x:row>
     <x:row r="255" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A255" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B255" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C255" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D255" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E255" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F255" s="1" t="s">
         <x:v>19</x:v>
@@ -9509,7 +9767,7 @@
       <x:c r="I255" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="M255" s="1" t="s">
+      <x:c r="L255" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="P255" s="1" t="s">
@@ -9518,19 +9776,19 @@
     </x:row>
     <x:row r="256" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A256" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B256" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C256" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D256" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E256" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F256" s="1" t="s">
         <x:v>19</x:v>
@@ -9543,6 +9801,12 @@
       </x:c>
       <x:c r="I256" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M256" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P256" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -9556,10 +9820,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D257" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E257" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F257" s="1" t="s">
         <x:v>19</x:v>
@@ -9572,23 +9836,29 @@
       </x:c>
       <x:c r="I257" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M257" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P257" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A258" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B258" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C258" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D258" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E258" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F258" s="1" t="s">
         <x:v>19</x:v>
@@ -9605,36 +9875,39 @@
     </x:row>
     <x:row r="259" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A259" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B259" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C259" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D259" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E259" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F259" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G259" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H259" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I259" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P259" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A260" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B260" s="1" t="s">
         <x:v>277</x:v>
@@ -9643,10 +9916,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D260" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E260" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F260" s="1" t="s">
         <x:v>19</x:v>
@@ -9659,23 +9932,29 @@
       </x:c>
       <x:c r="I260" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M260" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P260" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A261" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B261" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
       <x:c r="C261" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D261" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E261" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F261" s="1" t="s">
         <x:v>19</x:v>
@@ -9688,40 +9967,49 @@
       </x:c>
       <x:c r="I261" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L261" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P261" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A262" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B262" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
       <x:c r="C262" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D262" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E262" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F262" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G262" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H262" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I262" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P262" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A263" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B263" s="1" t="s">
         <x:v>278</x:v>
@@ -9730,27 +10018,30 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D263" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E263" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F263" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G263" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H263" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I263" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P263" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A264" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B264" s="1" t="s">
         <x:v>278</x:v>
@@ -9759,213 +10050,234 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D264" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E264" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F264" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="G264" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H264" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="I264" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="P264" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A265" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B265" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C265" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D265" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E265" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F265" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G265" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H265" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I265" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P265" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A266" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B266" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C266" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D266" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E266" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F266" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G266" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H266" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I266" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P266" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A267" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B267" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C267" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D267" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E267" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F267" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G267" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="H267" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I267" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="P267" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A268" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B268" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C268" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D268" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E268" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F268" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G268" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H268" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I268" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="P268" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A269" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B269" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C269" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D269" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E269" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F269" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G269" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H269" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I269" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P269" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A270" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B270" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C270" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D270" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E270" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F270" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G270" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H270" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I270" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="P270" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A271" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E271" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F271" s="1" t="s">
         <x:v>19</x:v>
@@ -9978,20 +10290,26 @@
       </x:c>
       <x:c r="I271" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L271" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P271" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A272" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C272" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D272" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E272" s="1" t="s">
         <x:v>84</x:v>
@@ -10008,34 +10326,43 @@
       <x:c r="I272" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
+      <x:c r="L272" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P272" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
     </x:row>
     <x:row r="273" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A273" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C273" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D273" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E273" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F273" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G273" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H273" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I273" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="P273" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -10043,45 +10370,48 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="B274" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C274" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D274" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E274" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F274" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G274" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H274" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="I274" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="P274" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A275" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C275" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D275" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E275" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F275" s="1" t="s">
         <x:v>19</x:v>
@@ -10094,23 +10424,29 @@
       </x:c>
       <x:c r="I275" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M275" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P275" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A276" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C276" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D276" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E276" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F276" s="1" t="s">
         <x:v>19</x:v>
@@ -10123,23 +10459,29 @@
       </x:c>
       <x:c r="I276" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M276" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P276" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A277" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C277" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D277" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E277" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F277" s="1" t="s">
         <x:v>19</x:v>
@@ -10156,19 +10498,19 @@
     </x:row>
     <x:row r="278" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A278" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C278" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D278" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E278" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F278" s="1" t="s">
         <x:v>19</x:v>
@@ -10185,19 +10527,19 @@
     </x:row>
     <x:row r="279" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A279" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C279" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D279" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E279" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F279" s="1" t="s">
         <x:v>19</x:v>
@@ -10210,23 +10552,29 @@
       </x:c>
       <x:c r="I279" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L279" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P279" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A280" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C280" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D280" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E280" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F280" s="1" t="s">
         <x:v>19</x:v>
@@ -10239,35 +10587,44 @@
       </x:c>
       <x:c r="I280" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="K280" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P280" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A281" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C281" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D281" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E281" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F281" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G281" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H281" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I281" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="P281" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -10275,103 +10632,112 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="B282" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C282" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D282" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E282" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F282" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G282" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H282" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I282" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P282" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A283" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B283" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C283" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D283" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E283" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F283" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G283" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H283" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="I283" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="P283" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A284" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C284" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D284" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E284" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F284" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G284" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H284" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I284" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P284" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A285" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C285" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D285" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E285" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F285" s="1" t="s">
         <x:v>19</x:v>
@@ -10384,23 +10750,29 @@
       </x:c>
       <x:c r="I285" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L285" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P285" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A286" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C286" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D286" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E286" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F286" s="1" t="s">
         <x:v>19</x:v>
@@ -10413,81 +10785,93 @@
       </x:c>
       <x:c r="I286" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L286" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P286" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A287" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C287" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D287" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E287" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F287" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G287" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H287" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="I287" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="P287" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A288" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C288" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D288" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E288" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F288" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G288" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H288" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I288" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P288" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A289" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C289" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D289" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E289" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F289" s="1" t="s">
         <x:v>19</x:v>
@@ -10500,81 +10884,90 @@
       </x:c>
       <x:c r="I289" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L289" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A290" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C290" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D290" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E290" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F290" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G290" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H290" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I290" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="P290" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A291" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C291" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D291" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E291" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F291" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G291" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="H291" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I291" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P291" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A292" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B292" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C292" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D292" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E292" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F292" s="1" t="s">
         <x:v>19</x:v>
@@ -10591,19 +10984,19 @@
     </x:row>
     <x:row r="293" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A293" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C293" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D293" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E293" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F293" s="1" t="s">
         <x:v>19</x:v>
@@ -10616,23 +11009,29 @@
       </x:c>
       <x:c r="I293" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M293" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P293" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A294" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C294" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D294" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E294" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F294" s="1" t="s">
         <x:v>19</x:v>
@@ -10645,81 +11044,93 @@
       </x:c>
       <x:c r="I294" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M294" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P294" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A295" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C295" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D295" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E295" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F295" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G295" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H295" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I295" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P295" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A296" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C296" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D296" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E296" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F296" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G296" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H296" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I296" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P296" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A297" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C297" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D297" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E297" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F297" s="1" t="s">
         <x:v>19</x:v>
@@ -10732,23 +11143,29 @@
       </x:c>
       <x:c r="I297" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M297" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P297" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A298" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C298" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D298" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E298" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F298" s="1" t="s">
         <x:v>19</x:v>
@@ -10761,139 +11178,157 @@
       </x:c>
       <x:c r="I298" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M298" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P298" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A299" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C299" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D299" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E299" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F299" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G299" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H299" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I299" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P299" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A300" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C300" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D300" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E300" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F300" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G300" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H300" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I300" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="P300" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A301" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C301" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D301" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E301" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F301" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G301" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H301" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="I301" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="P301" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A302" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B302" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C302" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D302" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E302" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F302" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G302" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H302" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I302" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P302" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A303" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B303" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C303" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D303" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E303" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F303" s="1" t="s">
         <x:v>19</x:v>
@@ -10906,23 +11341,29 @@
       </x:c>
       <x:c r="I303" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L303" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P303" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A304" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C304" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D304" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E304" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F304" s="1" t="s">
         <x:v>19</x:v>
@@ -10935,14 +11376,17 @@
       </x:c>
       <x:c r="I304" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L304" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A305" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C305" s="1" t="s">
         <x:v>16</x:v>
@@ -10954,16 +11398,19 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="F305" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G305" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H305" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="I305" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="P305" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -10971,7 +11418,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C306" s="1" t="s">
         <x:v>16</x:v>
@@ -10993,6 +11440,12 @@
       </x:c>
       <x:c r="I306" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L306" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P306" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -11000,7 +11453,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C307" s="1" t="s">
         <x:v>16</x:v>
@@ -11022,6 +11475,12 @@
       </x:c>
       <x:c r="I307" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M307" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P307" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -11029,7 +11488,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C308" s="1" t="s">
         <x:v>16</x:v>
@@ -11041,33 +11500,36 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="F308" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G308" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H308" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I308" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="P308" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A309" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C309" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D309" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E309" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F309" s="1" t="s">
         <x:v>19</x:v>
@@ -11084,10 +11546,10 @@
     </x:row>
     <x:row r="310" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A310" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C310" s="1" t="s">
         <x:v>16</x:v>
@@ -11102,21 +11564,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G310" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H310" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I310" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P310" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A311" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C311" s="1" t="s">
         <x:v>16</x:v>
@@ -11128,62 +11593,68 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F311" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G311" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H311" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I311" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P311" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A312" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C312" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D312" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E312" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F312" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G312" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H312" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="I312" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P312" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A313" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C313" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D313" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E313" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F313" s="1" t="s">
         <x:v>19</x:v>
@@ -11196,81 +11667,93 @@
       </x:c>
       <x:c r="I313" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M313" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P313" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A314" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B314" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C314" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D314" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E314" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F314" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G314" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H314" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I314" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="P314" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A315" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B315" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C315" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D315" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E315" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F315" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G315" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H315" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I315" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P315" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A316" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D316" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E316" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F316" s="1" t="s">
         <x:v>19</x:v>
@@ -11283,23 +11766,29 @@
       </x:c>
       <x:c r="I316" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M316" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P316" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A317" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C317" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D317" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E317" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F317" s="1" t="s">
         <x:v>19</x:v>
@@ -11316,20 +11805,20 @@
     </x:row>
     <x:row r="318" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A318" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C318" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D318" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E318" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="E318" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="F318" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -11341,35 +11830,41 @@
       </x:c>
       <x:c r="I318" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="L318" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P318" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A319" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C319" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D319" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E319" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F319" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G319" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H319" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I319" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -11377,16 +11872,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C320" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D320" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E320" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F320" s="1" t="s">
         <x:v>19</x:v>
@@ -11399,23 +11894,29 @@
       </x:c>
       <x:c r="I320" s="1" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="M320" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P320" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A321" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C321" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D321" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E321" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F321" s="1" t="s">
         <x:v>19</x:v>
@@ -11432,19 +11933,19 @@
     </x:row>
     <x:row r="322" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A322" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B322" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C322" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D322" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E322" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F322" s="1" t="s">
         <x:v>19</x:v>
@@ -11461,19 +11962,19 @@
     </x:row>
     <x:row r="323" spans="1:16" customFormat="1" ht="15" customHeight="1">
       <x:c r="A323" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B323" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C323" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D323" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E323" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F323" s="1" t="s">
         <x:v>19</x:v>
@@ -11493,28 +11994,31 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C324" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D324" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E324" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="E324" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="F324" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G324" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H324" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I324" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P324" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:16" customFormat="1" ht="15" customHeight="1">
@@ -11522,7 +12026,7 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C325" s="1" t="s">
         <x:v>16</x:v>
@@ -11531,26 +12035,867 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E325" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F325" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G325" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H325" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I325" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M325" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P325" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A326" s="1" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B326" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C326" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D326" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E326" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F326" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="G326" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="H326" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="I326" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="P326" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A327" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B327" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C327" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D327" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E327" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F327" s="1" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="G327" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H327" s="1" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="I327" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P327" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A328" s="1" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B328" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C328" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D328" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E328" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F325" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G325" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H325" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I325" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="326" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="327" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="328" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="329" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="330" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="F328" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G328" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H328" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I328" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L328" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P328" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A329" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B329" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C329" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D329" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E329" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F329" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G329" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H329" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I329" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L329" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P329" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A330" s="1" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B330" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C330" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D330" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E330" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F330" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G330" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H330" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I330" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P330" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A331" s="1" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B331" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C331" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D331" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E331" s="1" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="F331" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="G331" s="1" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="H331" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="I331" s="1" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="P331" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A332" s="1" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B332" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C332" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D332" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E332" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F332" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G332" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H332" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I332" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L332" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P332" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A333" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B333" s="1" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="C333" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D333" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E333" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F333" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G333" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H333" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I333" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L333" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P333" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A334" s="1" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="B334" s="1" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C334" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D334" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E334" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F334" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G334" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H334" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I334" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A335" s="1" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B335" s="1" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C335" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D335" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E335" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="F335" s="1" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="G335" s="1" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="H335" s="1" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="I335" s="1" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="P335" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A336" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B336" s="1" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C336" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D336" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E336" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F336" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G336" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H336" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I336" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L336" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P336" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A337" s="1" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B337" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C337" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D337" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="E337" s="1" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="F337" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G337" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H337" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I337" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="338" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A338" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B338" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C338" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D338" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E338" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F338" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G338" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H338" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I338" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M338" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P338" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A339" s="1" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B339" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C339" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D339" s="1" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E339" s="1" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="F339" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G339" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H339" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I339" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A340" s="1" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B340" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C340" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D340" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E340" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F340" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G340" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H340" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I340" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M340" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P340" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A341" s="1" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B341" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C341" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D341" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E341" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F341" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G341" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H341" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I341" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M341" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P341" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A342" s="1" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B342" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C342" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D342" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E342" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F342" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G342" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H342" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I342" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M342" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P342" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A343" s="1" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B343" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C343" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D343" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E343" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F343" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G343" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H343" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I343" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M343" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P343" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A344" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B344" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C344" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D344" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E344" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F344" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G344" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H344" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I344" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A345" s="1" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B345" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C345" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D345" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E345" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F345" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G345" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H345" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I345" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P345" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A346" s="1" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B346" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C346" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D346" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E346" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F346" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G346" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H346" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I346" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A347" s="1" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B347" s="1" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C347" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D347" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E347" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F347" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G347" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H347" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I347" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P347" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A348" s="1" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B348" s="1" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C348" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D348" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E348" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F348" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G348" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H348" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I348" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A349" s="1" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B349" s="1" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C349" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D349" s="1" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="E349" s="1" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="F349" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G349" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H349" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I349" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A350" s="1" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B350" s="1" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C350" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D350" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E350" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F350" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G350" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H350" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I350" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351" spans="1:16" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A351" s="1" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B351" s="1" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="C351" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D351" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E351" s="1" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="F351" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G351" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H351" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I351" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="353" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="354" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="355" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="356" spans="1:16" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:P1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
